--- a/biology/Zoologie/Anaxyrus_terrestris/Anaxyrus_terrestris.xlsx
+++ b/biology/Zoologie/Anaxyrus_terrestris/Anaxyrus_terrestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaxyrus terrestris est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaxyrus terrestris est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Est des États-Unis[1]. Elle se rencontre dans la plaine côtière dans le sud-est de la Virginie, dans l'est de la Caroline du Nord, dans l'Est de la Caroline du Sud, dans le sud de la Géorgie, en Floride, en Alabama, au Mississippi et dans l'Est de la Louisiane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Est des États-Unis. Elle se rencontre dans la plaine côtière dans le sud-est de la Virginie, dans l'est de la Caroline du Nord, dans l'Est de la Caroline du Sud, dans le sud de la Géorgie, en Floride, en Alabama, au Mississippi et dans l'Est de la Louisiane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 42 à 82 mm et les femelles de 44 à 92 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 42 à 82 mm et les femelles de 44 à 92 mm.
 </t>
         </is>
       </c>
